--- a/natmiOut/OldD0/LR-pairs_lrc2p/Arf1-Insr.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Arf1-Insr.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>67.4185952094054</v>
+        <v>77.63718533333333</v>
       </c>
       <c r="H2">
-        <v>67.4185952094054</v>
+        <v>232.911556</v>
       </c>
       <c r="I2">
-        <v>0.4180110616735474</v>
+        <v>0.4513549673384918</v>
       </c>
       <c r="J2">
-        <v>0.4180110616735474</v>
+        <v>0.4513549673384918</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>16.8108739930338</v>
+        <v>17.33599166666667</v>
       </c>
       <c r="N2">
-        <v>16.8108739930338</v>
+        <v>52.007975</v>
       </c>
       <c r="O2">
-        <v>0.4501663532412932</v>
+        <v>0.4573561888773979</v>
       </c>
       <c r="P2">
-        <v>0.4501663532412932</v>
+        <v>0.4573561888773979</v>
       </c>
       <c r="Q2">
-        <v>1133.365508852666</v>
+        <v>1345.917597962122</v>
       </c>
       <c r="R2">
-        <v>1133.365508852666</v>
+        <v>12113.2583816591</v>
       </c>
       <c r="S2">
-        <v>0.1881745152481021</v>
+        <v>0.206429987692815</v>
       </c>
       <c r="T2">
-        <v>0.1881745152481021</v>
+        <v>0.206429987692815</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>67.4185952094054</v>
+        <v>77.63718533333333</v>
       </c>
       <c r="H3">
-        <v>67.4185952094054</v>
+        <v>232.911556</v>
       </c>
       <c r="I3">
-        <v>0.4180110616735474</v>
+        <v>0.4513549673384918</v>
       </c>
       <c r="J3">
-        <v>0.4180110616735474</v>
+        <v>0.4513549673384918</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>9.067899781666011</v>
+        <v>9.077707333333334</v>
       </c>
       <c r="N3">
-        <v>9.067899781666011</v>
+        <v>27.233122</v>
       </c>
       <c r="O3">
-        <v>0.2428227930303719</v>
+        <v>0.2394870573052156</v>
       </c>
       <c r="P3">
-        <v>0.2428227930303719</v>
+        <v>0.2394870573052156</v>
       </c>
       <c r="Q3">
-        <v>611.3450647795963</v>
+        <v>704.7676466397592</v>
       </c>
       <c r="R3">
-        <v>611.3450647795963</v>
+        <v>6342.908819757832</v>
       </c>
       <c r="S3">
-        <v>0.1015026135131618</v>
+        <v>0.1080936729279871</v>
       </c>
       <c r="T3">
-        <v>0.1015026135131618</v>
+        <v>0.1080936729279871</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>67.4185952094054</v>
+        <v>77.63718533333333</v>
       </c>
       <c r="H4">
-        <v>67.4185952094054</v>
+        <v>232.911556</v>
       </c>
       <c r="I4">
-        <v>0.4180110616735474</v>
+        <v>0.4513549673384918</v>
       </c>
       <c r="J4">
-        <v>0.4180110616735474</v>
+        <v>0.4513549673384918</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.4649190001865</v>
+        <v>11.491094</v>
       </c>
       <c r="N4">
-        <v>11.4649190001865</v>
+        <v>34.473282</v>
       </c>
       <c r="O4">
-        <v>0.307010853728335</v>
+        <v>0.3031567538173866</v>
       </c>
       <c r="P4">
-        <v>0.307010853728335</v>
+        <v>0.3031567538173866</v>
       </c>
       <c r="Q4">
-        <v>772.9487331821945</v>
+        <v>892.1361945607546</v>
       </c>
       <c r="R4">
-        <v>772.9487331821945</v>
+        <v>8029.225751046791</v>
       </c>
       <c r="S4">
-        <v>0.1283339329122835</v>
+        <v>0.1368313067176898</v>
       </c>
       <c r="T4">
-        <v>0.1283339329122835</v>
+        <v>0.1368313067176897</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>62.2564189850491</v>
+        <v>62.40815866666667</v>
       </c>
       <c r="H5">
-        <v>62.2564189850491</v>
+        <v>187.224476</v>
       </c>
       <c r="I5">
-        <v>0.3860043614836852</v>
+        <v>0.3628188257432201</v>
       </c>
       <c r="J5">
-        <v>0.3860043614836852</v>
+        <v>0.3628188257432201</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.8108739930338</v>
+        <v>17.33599166666667</v>
       </c>
       <c r="N5">
-        <v>16.8108739930338</v>
+        <v>52.007975</v>
       </c>
       <c r="O5">
-        <v>0.4501663532412932</v>
+        <v>0.4573561888773979</v>
       </c>
       <c r="P5">
-        <v>0.4501663532412932</v>
+        <v>0.4573561888773979</v>
       </c>
       <c r="Q5">
-        <v>1046.584814815178</v>
+        <v>1081.907318577345</v>
       </c>
       <c r="R5">
-        <v>1046.584814815178</v>
+        <v>9737.165867196101</v>
       </c>
       <c r="S5">
-        <v>0.1737661757443445</v>
+        <v>0.1659374353948919</v>
       </c>
       <c r="T5">
-        <v>0.1737661757443445</v>
+        <v>0.1659374353948919</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>62.2564189850491</v>
+        <v>62.40815866666667</v>
       </c>
       <c r="H6">
-        <v>62.2564189850491</v>
+        <v>187.224476</v>
       </c>
       <c r="I6">
-        <v>0.3860043614836852</v>
+        <v>0.3628188257432201</v>
       </c>
       <c r="J6">
-        <v>0.3860043614836852</v>
+        <v>0.3628188257432201</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.067899781666011</v>
+        <v>9.077707333333334</v>
       </c>
       <c r="N6">
-        <v>9.067899781666011</v>
+        <v>27.233122</v>
       </c>
       <c r="O6">
-        <v>0.2428227930303719</v>
+        <v>0.2394870573052156</v>
       </c>
       <c r="P6">
-        <v>0.2428227930303719</v>
+        <v>0.2394870573052156</v>
       </c>
       <c r="Q6">
-        <v>564.5349681218345</v>
+        <v>566.5229995882304</v>
       </c>
       <c r="R6">
-        <v>564.5349681218345</v>
+        <v>5098.706996294072</v>
       </c>
       <c r="S6">
-        <v>0.09373065717737372</v>
+        <v>0.08689041291217758</v>
       </c>
       <c r="T6">
-        <v>0.09373065717737372</v>
+        <v>0.08689041291217758</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>62.2564189850491</v>
+        <v>62.40815866666667</v>
       </c>
       <c r="H7">
-        <v>62.2564189850491</v>
+        <v>187.224476</v>
       </c>
       <c r="I7">
-        <v>0.3860043614836852</v>
+        <v>0.3628188257432201</v>
       </c>
       <c r="J7">
-        <v>0.3860043614836852</v>
+        <v>0.3628188257432201</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.4649190001865</v>
+        <v>11.491094</v>
       </c>
       <c r="N7">
-        <v>11.4649190001865</v>
+        <v>34.473282</v>
       </c>
       <c r="O7">
-        <v>0.307010853728335</v>
+        <v>0.3031567538173866</v>
       </c>
       <c r="P7">
-        <v>0.307010853728335</v>
+        <v>0.3031567538173866</v>
       </c>
       <c r="Q7">
-        <v>713.7648009052609</v>
+        <v>717.1380176055814</v>
       </c>
       <c r="R7">
-        <v>713.7648009052609</v>
+        <v>6454.242158450232</v>
       </c>
       <c r="S7">
-        <v>0.118507528561967</v>
+        <v>0.1099909774361507</v>
       </c>
       <c r="T7">
-        <v>0.118507528561967</v>
+        <v>0.1099909774361507</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>31.6092229725922</v>
+        <v>31.96380833333333</v>
       </c>
       <c r="H8">
-        <v>31.6092229725922</v>
+        <v>95.891425</v>
       </c>
       <c r="I8">
-        <v>0.1959845768427675</v>
+        <v>0.1858262069182881</v>
       </c>
       <c r="J8">
-        <v>0.1959845768427675</v>
+        <v>0.1858262069182881</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>16.8108739930338</v>
+        <v>17.33599166666667</v>
       </c>
       <c r="N8">
-        <v>16.8108739930338</v>
+        <v>52.007975</v>
       </c>
       <c r="O8">
-        <v>0.4501663532412932</v>
+        <v>0.4573561888773979</v>
       </c>
       <c r="P8">
-        <v>0.4501663532412932</v>
+        <v>0.4573561888773979</v>
       </c>
       <c r="Q8">
-        <v>531.3786644099567</v>
+        <v>554.1243149015972</v>
       </c>
       <c r="R8">
-        <v>531.3786644099567</v>
+        <v>4987.118834114375</v>
       </c>
       <c r="S8">
-        <v>0.08822566224884666</v>
+        <v>0.08498876578969099</v>
       </c>
       <c r="T8">
-        <v>0.08822566224884666</v>
+        <v>0.08498876578969097</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>31.6092229725922</v>
+        <v>31.96380833333333</v>
       </c>
       <c r="H9">
-        <v>31.6092229725922</v>
+        <v>95.891425</v>
       </c>
       <c r="I9">
-        <v>0.1959845768427675</v>
+        <v>0.1858262069182881</v>
       </c>
       <c r="J9">
-        <v>0.1959845768427675</v>
+        <v>0.1858262069182881</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>9.067899781666011</v>
+        <v>9.077707333333334</v>
       </c>
       <c r="N9">
-        <v>9.067899781666011</v>
+        <v>27.233122</v>
       </c>
       <c r="O9">
-        <v>0.2428227930303719</v>
+        <v>0.2394870573052156</v>
       </c>
       <c r="P9">
-        <v>0.2428227930303719</v>
+        <v>0.2394870573052156</v>
       </c>
       <c r="Q9">
-        <v>286.6292660918011</v>
+        <v>290.1580973087611</v>
       </c>
       <c r="R9">
-        <v>286.6292660918011</v>
+        <v>2611.42287577885</v>
       </c>
       <c r="S9">
-        <v>0.04758952233983634</v>
+        <v>0.04450297146505091</v>
       </c>
       <c r="T9">
-        <v>0.04758952233983634</v>
+        <v>0.0445029714650509</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>31.6092229725922</v>
+        <v>31.96380833333333</v>
       </c>
       <c r="H10">
-        <v>31.6092229725922</v>
+        <v>95.891425</v>
       </c>
       <c r="I10">
-        <v>0.1959845768427675</v>
+        <v>0.1858262069182881</v>
       </c>
       <c r="J10">
-        <v>0.1959845768427675</v>
+        <v>0.1858262069182881</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>11.4649190001865</v>
+        <v>11.491094</v>
       </c>
       <c r="N10">
-        <v>11.4649190001865</v>
+        <v>34.473282</v>
       </c>
       <c r="O10">
-        <v>0.307010853728335</v>
+        <v>0.3031567538173866</v>
       </c>
       <c r="P10">
-        <v>0.307010853728335</v>
+        <v>0.3031567538173866</v>
       </c>
       <c r="Q10">
-        <v>362.3971810396039</v>
+        <v>367.2991261563166</v>
       </c>
       <c r="R10">
-        <v>362.3971810396039</v>
+        <v>3305.69213540685</v>
       </c>
       <c r="S10">
-        <v>0.06016939225408453</v>
+        <v>0.0563344696635462</v>
       </c>
       <c r="T10">
-        <v>0.06016939225408453</v>
+        <v>0.0563344696635462</v>
       </c>
     </row>
   </sheetData>
